--- a/data/growth/Evo30vsEvo39_YPD30deg.xlsx
+++ b/data/growth/Evo30vsEvo39_YPD30deg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoavram/Work/Research/Ilia/Heatrisomy/data/growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B84F49-2453-834D-B198-4890D77BC6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ED83C3-CDBC-3D4C-9E69-B6A62159CB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12440" yWindow="4440" windowWidth="28040" windowHeight="17440" xr2:uid="{4BC80434-FE23-CA4E-8FCD-69F1F1B8FAA7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="3">
   <si>
     <t>evo30</t>
   </si>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD138FDF-5057-ED47-B854-9EF49CF3451A}">
-  <dimension ref="A1:AP78"/>
+  <dimension ref="A1:AP77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7845,649 +7845,772 @@
         <v>1.2629999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="3">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="C59" s="3">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="D59" s="3">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="F59" s="3">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="G59" s="3">
+        <v>8.5199999999999998E-2</v>
+      </c>
+      <c r="H59" s="3">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0.1011</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0.1205</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0.13980000000000001</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0.1646</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0.2031</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0.2417</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0.3105</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0.46389999999999998</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0.5484</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0.68659999999999999</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0.8679</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0.94510000000000005</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0.96360000000000001</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>1.0122</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>1.0273000000000001</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>1.0576000000000001</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>1.0705</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>1.0882000000000001</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>1.103</v>
+      </c>
+      <c r="AF59" s="3">
+        <v>1.1182000000000001</v>
+      </c>
+      <c r="AG59" s="3">
+        <v>1.1376999999999999</v>
+      </c>
+      <c r="AH59" s="3">
+        <v>1.2004999999999999</v>
+      </c>
+      <c r="AI59" s="3">
+        <v>1.2117</v>
+      </c>
+      <c r="AJ59" s="3">
+        <v>1.2344999999999999</v>
+      </c>
+      <c r="AK59" s="3">
+        <v>1.2531000000000001</v>
+      </c>
+      <c r="AL59" s="3">
+        <v>1.2331000000000001</v>
+      </c>
+      <c r="AM59" s="3">
+        <v>1.2646999999999999</v>
+      </c>
+      <c r="AN59" s="3">
+        <v>1.3019000000000001</v>
+      </c>
+      <c r="AO59" s="3">
+        <v>1.3001</v>
+      </c>
+      <c r="AP59" s="3">
+        <v>1.3019000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B60" s="2">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="C60" s="2">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="D60" s="2">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="E60" s="2">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="F60" s="2">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="G60" s="2">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="H60" s="2">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0.1061</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0.12509999999999999</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0.15140000000000001</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0.18260000000000001</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0.2301</v>
+      </c>
+      <c r="N60" s="2">
+        <v>0.27960000000000002</v>
+      </c>
+      <c r="O60" s="2">
+        <v>0.35909999999999997</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0.44259999999999999</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0.54159999999999997</v>
+      </c>
+      <c r="R60" s="2">
+        <v>0.64370000000000005</v>
+      </c>
+      <c r="S60" s="2">
+        <v>0.76890000000000003</v>
+      </c>
+      <c r="T60" s="2">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="U60" s="2">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="V60" s="2">
+        <v>0.94259999999999999</v>
+      </c>
+      <c r="W60" s="2">
+        <v>0.96240000000000003</v>
+      </c>
+      <c r="X60" s="2">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>0.9889</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="AA60" s="2">
+        <v>1.0434000000000001</v>
+      </c>
+      <c r="AB60" s="2">
+        <v>1.0724</v>
+      </c>
+      <c r="AC60" s="2">
+        <v>1.0725</v>
+      </c>
+      <c r="AD60" s="2">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="AE60" s="2">
+        <v>1.0891</v>
+      </c>
+      <c r="AF60" s="2">
+        <v>1.107</v>
+      </c>
+      <c r="AG60" s="2">
+        <v>1.1325000000000001</v>
+      </c>
+      <c r="AH60" s="2">
+        <v>1.1583000000000001</v>
+      </c>
+      <c r="AI60" s="2">
+        <v>1.1862999999999999</v>
+      </c>
+      <c r="AJ60" s="2">
+        <v>1.2133</v>
+      </c>
+      <c r="AK60" s="2">
+        <v>1.228</v>
+      </c>
+      <c r="AL60" s="2">
+        <v>1.2548999999999999</v>
+      </c>
+      <c r="AM60" s="2">
+        <v>1.2823</v>
+      </c>
+      <c r="AN60" s="2">
+        <v>1.2790999999999999</v>
+      </c>
+      <c r="AO60" s="2">
+        <v>1.2941</v>
+      </c>
+      <c r="AP60" s="2">
+        <v>1.2998000000000001</v>
+      </c>
     </row>
-    <row r="60" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+    <row r="61" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="3">
-        <v>6.3799999999999996E-2</v>
-      </c>
-      <c r="C60" s="3">
-        <v>6.7699999999999996E-2</v>
-      </c>
-      <c r="D60" s="3">
-        <v>7.0800000000000002E-2</v>
-      </c>
-      <c r="E60" s="3">
-        <v>7.4700000000000003E-2</v>
-      </c>
-      <c r="F60" s="3">
-        <v>7.9100000000000004E-2</v>
-      </c>
-      <c r="G60" s="3">
-        <v>8.5199999999999998E-2</v>
-      </c>
-      <c r="H60" s="3">
-        <v>9.2499999999999999E-2</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0.1011</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0.1205</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0.13980000000000001</v>
-      </c>
-      <c r="L60" s="3">
-        <v>0.1646</v>
-      </c>
-      <c r="M60" s="3">
-        <v>0.2031</v>
-      </c>
-      <c r="N60" s="3">
-        <v>0.2417</v>
-      </c>
-      <c r="O60" s="3">
-        <v>0.3105</v>
-      </c>
-      <c r="P60" s="3">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>0.46389999999999998</v>
-      </c>
-      <c r="R60" s="3">
-        <v>0.5484</v>
-      </c>
-      <c r="S60" s="3">
-        <v>0.68659999999999999</v>
-      </c>
-      <c r="T60" s="3">
-        <v>0.8679</v>
-      </c>
-      <c r="U60" s="3">
-        <v>0.94369999999999998</v>
-      </c>
-      <c r="V60" s="3">
-        <v>0.94510000000000005</v>
-      </c>
-      <c r="W60" s="3">
-        <v>0.96360000000000001</v>
-      </c>
-      <c r="X60" s="3">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>0.98680000000000001</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>1.0122</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>1.0273000000000001</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>1.0576000000000001</v>
-      </c>
-      <c r="AC60" s="3">
-        <v>1.0705</v>
-      </c>
-      <c r="AD60" s="3">
-        <v>1.0882000000000001</v>
-      </c>
-      <c r="AE60" s="3">
-        <v>1.103</v>
-      </c>
-      <c r="AF60" s="3">
-        <v>1.1182000000000001</v>
-      </c>
-      <c r="AG60" s="3">
-        <v>1.1376999999999999</v>
-      </c>
-      <c r="AH60" s="3">
-        <v>1.2004999999999999</v>
-      </c>
-      <c r="AI60" s="3">
-        <v>1.2117</v>
-      </c>
-      <c r="AJ60" s="3">
-        <v>1.2344999999999999</v>
-      </c>
-      <c r="AK60" s="3">
-        <v>1.2531000000000001</v>
-      </c>
-      <c r="AL60" s="3">
-        <v>1.2331000000000001</v>
-      </c>
-      <c r="AM60" s="3">
-        <v>1.2646999999999999</v>
-      </c>
-      <c r="AN60" s="3">
-        <v>1.3019000000000001</v>
-      </c>
-      <c r="AO60" s="3">
-        <v>1.3001</v>
-      </c>
-      <c r="AP60" s="3">
-        <v>1.3019000000000001</v>
+      <c r="B61" s="3">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="C61" s="3">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="D61" s="3">
+        <v>7.0300000000000001E-2</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="F61" s="3">
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="G61" s="3">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="H61" s="3">
+        <v>9.11E-2</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0.1004</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0.1183</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0.16059999999999999</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0.2331</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0.2969</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0.36759999999999998</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0.44409999999999999</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0.53680000000000005</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0.64939999999999998</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>1.0081</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>1.0474000000000001</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>1.0611999999999999</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>1.0782</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>1.1262000000000001</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>1.1333</v>
+      </c>
+      <c r="AG61" s="3">
+        <v>1.161</v>
+      </c>
+      <c r="AH61" s="3">
+        <v>1.1789000000000001</v>
+      </c>
+      <c r="AI61" s="3">
+        <v>1.2002999999999999</v>
+      </c>
+      <c r="AJ61" s="3">
+        <v>1.2198</v>
+      </c>
+      <c r="AK61" s="3">
+        <v>1.2319</v>
+      </c>
+      <c r="AL61" s="3">
+        <v>1.2541</v>
+      </c>
+      <c r="AM61" s="3">
+        <v>1.2628999999999999</v>
+      </c>
+      <c r="AN61" s="3">
+        <v>1.2656000000000001</v>
+      </c>
+      <c r="AO61" s="3">
+        <v>1.2623</v>
+      </c>
+      <c r="AP61" s="3">
+        <v>1.274</v>
       </c>
     </row>
-    <row r="61" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+    <row r="62" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="2">
-        <v>6.3200000000000006E-2</v>
-      </c>
-      <c r="C61" s="2">
-        <v>6.7299999999999999E-2</v>
-      </c>
-      <c r="D61" s="2">
+      <c r="B62" s="2">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="C62" s="2">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="D62" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E62" s="2">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="F62" s="2">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="G62" s="2">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="H62" s="2">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0.1077</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0.15440000000000001</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0.18129999999999999</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0.22950000000000001</v>
+      </c>
+      <c r="N62" s="2">
+        <v>0.27839999999999998</v>
+      </c>
+      <c r="O62" s="2">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0.44409999999999999</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>0.54159999999999997</v>
+      </c>
+      <c r="R62" s="2">
+        <v>0.65059999999999996</v>
+      </c>
+      <c r="S62" s="2">
+        <v>0.85419999999999996</v>
+      </c>
+      <c r="T62" s="2">
+        <v>0.93520000000000003</v>
+      </c>
+      <c r="U62" s="2">
+        <v>0.95140000000000002</v>
+      </c>
+      <c r="V62" s="2">
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="W62" s="2">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="X62" s="2">
+        <v>0.9929</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>1.0044</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>1.0221</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>1.0392999999999999</v>
+      </c>
+      <c r="AB62" s="2">
+        <v>1.0658000000000001</v>
+      </c>
+      <c r="AC62" s="2">
+        <v>1.111</v>
+      </c>
+      <c r="AD62" s="2">
+        <v>1.1281000000000001</v>
+      </c>
+      <c r="AE62" s="2">
+        <v>1.1324000000000001</v>
+      </c>
+      <c r="AF62" s="2">
+        <v>1.1476999999999999</v>
+      </c>
+      <c r="AG62" s="2">
+        <v>1.1698999999999999</v>
+      </c>
+      <c r="AH62" s="2">
+        <v>1.1867000000000001</v>
+      </c>
+      <c r="AI62" s="2">
+        <v>1.2082999999999999</v>
+      </c>
+      <c r="AJ62" s="2">
+        <v>1.2439</v>
+      </c>
+      <c r="AK62" s="2">
+        <v>1.2606999999999999</v>
+      </c>
+      <c r="AL62" s="2">
+        <v>1.2652000000000001</v>
+      </c>
+      <c r="AM62" s="2">
+        <v>1.2786999999999999</v>
+      </c>
+      <c r="AN62" s="2">
+        <v>1.2763</v>
+      </c>
+      <c r="AO62" s="2">
+        <v>1.2835000000000001</v>
+      </c>
+      <c r="AP62" s="2">
+        <v>1.2775000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="3">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C63" s="3">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="D63" s="3">
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="E61" s="2">
-        <v>7.1599999999999997E-2</v>
-      </c>
-      <c r="F61" s="2">
-        <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="G61" s="2">
-        <v>8.6300000000000002E-2</v>
-      </c>
-      <c r="H61" s="2">
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="I61" s="2">
-        <v>0.1061</v>
-      </c>
-      <c r="J61" s="2">
+      <c r="E63" s="3">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="F63" s="3">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="G63" s="3">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H63" s="3">
+        <v>8.9200000000000002E-2</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0.1003</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="K63" s="3">
+        <v>0.1346</v>
+      </c>
+      <c r="L63" s="3">
+        <v>0.1618</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0.1953</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0.2326</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0.29420000000000002</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0.36480000000000001</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0.44869999999999999</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0.52839999999999998</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0.64710000000000001</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0.9163</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0.94540000000000002</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>1.0006999999999999</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>1.0157</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>1.0629999999999999</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>1.0766</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>1.1266</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>1.1363000000000001</v>
+      </c>
+      <c r="AG63" s="3">
+        <v>1.1656</v>
+      </c>
+      <c r="AH63" s="3">
+        <v>1.1843999999999999</v>
+      </c>
+      <c r="AI63" s="3">
+        <v>1.2054</v>
+      </c>
+      <c r="AJ63" s="3">
+        <v>1.2218</v>
+      </c>
+      <c r="AK63" s="3">
+        <v>1.2416</v>
+      </c>
+      <c r="AL63" s="3">
+        <v>1.2470000000000001</v>
+      </c>
+      <c r="AM63" s="3">
+        <v>1.2519</v>
+      </c>
+      <c r="AN63" s="3">
+        <v>1.2709999999999999</v>
+      </c>
+      <c r="AO63" s="3">
+        <v>1.2703</v>
+      </c>
+      <c r="AP63" s="3">
+        <v>1.2683</v>
+      </c>
+    </row>
+    <row r="64" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="2">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="C64" s="2">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="D64" s="2">
+        <v>6.9400000000000003E-2</v>
+      </c>
+      <c r="E64" s="2">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="F64" s="2">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="G64" s="2">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="H64" s="2">
+        <v>9.3100000000000002E-2</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0.1067</v>
+      </c>
+      <c r="J64" s="2">
         <v>0.12509999999999999</v>
       </c>
-      <c r="K61" s="2">
-        <v>0.15140000000000001</v>
-      </c>
-      <c r="L61" s="2">
-        <v>0.18260000000000001</v>
-      </c>
-      <c r="M61" s="2">
-        <v>0.2301</v>
-      </c>
-      <c r="N61" s="2">
-        <v>0.27960000000000002</v>
-      </c>
-      <c r="O61" s="2">
-        <v>0.35909999999999997</v>
-      </c>
-      <c r="P61" s="2">
-        <v>0.44259999999999999</v>
-      </c>
-      <c r="Q61" s="2">
-        <v>0.54159999999999997</v>
-      </c>
-      <c r="R61" s="2">
-        <v>0.64370000000000005</v>
-      </c>
-      <c r="S61" s="2">
-        <v>0.76890000000000003</v>
-      </c>
-      <c r="T61" s="2">
-        <v>0.91810000000000003</v>
-      </c>
-      <c r="U61" s="2">
-        <v>0.94130000000000003</v>
-      </c>
-      <c r="V61" s="2">
-        <v>0.94259999999999999</v>
-      </c>
-      <c r="W61" s="2">
-        <v>0.96240000000000003</v>
-      </c>
-      <c r="X61" s="2">
-        <v>0.97719999999999996</v>
-      </c>
-      <c r="Y61" s="2">
-        <v>0.9889</v>
-      </c>
-      <c r="Z61" s="2">
-        <v>1.04</v>
-      </c>
-      <c r="AA61" s="2">
-        <v>1.0434000000000001</v>
-      </c>
-      <c r="AB61" s="2">
-        <v>1.0724</v>
-      </c>
-      <c r="AC61" s="2">
-        <v>1.0725</v>
-      </c>
-      <c r="AD61" s="2">
-        <v>1.0740000000000001</v>
-      </c>
-      <c r="AE61" s="2">
-        <v>1.0891</v>
-      </c>
-      <c r="AF61" s="2">
-        <v>1.107</v>
-      </c>
-      <c r="AG61" s="2">
-        <v>1.1325000000000001</v>
-      </c>
-      <c r="AH61" s="2">
-        <v>1.1583000000000001</v>
-      </c>
-      <c r="AI61" s="2">
-        <v>1.1862999999999999</v>
-      </c>
-      <c r="AJ61" s="2">
-        <v>1.2133</v>
-      </c>
-      <c r="AK61" s="2">
-        <v>1.228</v>
-      </c>
-      <c r="AL61" s="2">
-        <v>1.2548999999999999</v>
-      </c>
-      <c r="AM61" s="2">
-        <v>1.2823</v>
-      </c>
-      <c r="AN61" s="2">
-        <v>1.2790999999999999</v>
-      </c>
-      <c r="AO61" s="2">
-        <v>1.2941</v>
-      </c>
-      <c r="AP61" s="2">
-        <v>1.2998000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="3">
-        <v>6.2799999999999995E-2</v>
-      </c>
-      <c r="C62" s="3">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="D62" s="3">
-        <v>7.0300000000000001E-2</v>
-      </c>
-      <c r="E62" s="3">
-        <v>7.3499999999999996E-2</v>
-      </c>
-      <c r="F62" s="3">
-        <v>7.8299999999999995E-2</v>
-      </c>
-      <c r="G62" s="3">
-        <v>8.3599999999999994E-2</v>
-      </c>
-      <c r="H62" s="3">
-        <v>9.11E-2</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0.1004</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0.1183</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0.13650000000000001</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0.16059999999999999</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0.2331</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0.2969</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0.36759999999999998</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0.44409999999999999</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0.53680000000000005</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0.64939999999999998</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0.77549999999999997</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0.92720000000000002</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0.92959999999999998</v>
-      </c>
-      <c r="W62" s="3">
-        <v>0.94920000000000004</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0.96819999999999995</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>0.96919999999999995</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>0.99819999999999998</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>1.0081</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>1.0474000000000001</v>
-      </c>
-      <c r="AC62" s="3">
-        <v>1.0611999999999999</v>
-      </c>
-      <c r="AD62" s="3">
-        <v>1.0782</v>
-      </c>
-      <c r="AE62" s="3">
-        <v>1.1262000000000001</v>
-      </c>
-      <c r="AF62" s="3">
-        <v>1.1333</v>
-      </c>
-      <c r="AG62" s="3">
-        <v>1.161</v>
-      </c>
-      <c r="AH62" s="3">
-        <v>1.1789000000000001</v>
-      </c>
-      <c r="AI62" s="3">
-        <v>1.2002999999999999</v>
-      </c>
-      <c r="AJ62" s="3">
-        <v>1.2198</v>
-      </c>
-      <c r="AK62" s="3">
-        <v>1.2319</v>
-      </c>
-      <c r="AL62" s="3">
-        <v>1.2541</v>
-      </c>
-      <c r="AM62" s="3">
-        <v>1.2628999999999999</v>
-      </c>
-      <c r="AN62" s="3">
-        <v>1.2656000000000001</v>
-      </c>
-      <c r="AO62" s="3">
-        <v>1.2623</v>
-      </c>
-      <c r="AP62" s="3">
-        <v>1.274</v>
-      </c>
-    </row>
-    <row r="63" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="2">
-        <v>6.4699999999999994E-2</v>
-      </c>
-      <c r="C63" s="2">
-        <v>6.6900000000000001E-2</v>
-      </c>
-      <c r="D63" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E63" s="2">
-        <v>7.5300000000000006E-2</v>
-      </c>
-      <c r="F63" s="2">
-        <v>7.9299999999999995E-2</v>
-      </c>
-      <c r="G63" s="2">
-        <v>8.4500000000000006E-2</v>
-      </c>
-      <c r="H63" s="2">
-        <v>9.5500000000000002E-2</v>
-      </c>
-      <c r="I63" s="2">
-        <v>0.1077</v>
-      </c>
-      <c r="J63" s="2">
-        <v>0.12670000000000001</v>
-      </c>
-      <c r="K63" s="2">
-        <v>0.15440000000000001</v>
-      </c>
-      <c r="L63" s="2">
-        <v>0.18129999999999999</v>
-      </c>
-      <c r="M63" s="2">
-        <v>0.22950000000000001</v>
-      </c>
-      <c r="N63" s="2">
-        <v>0.27839999999999998</v>
-      </c>
-      <c r="O63" s="2">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="P63" s="2">
-        <v>0.44409999999999999</v>
-      </c>
-      <c r="Q63" s="2">
-        <v>0.54159999999999997</v>
-      </c>
-      <c r="R63" s="2">
-        <v>0.65059999999999996</v>
-      </c>
-      <c r="S63" s="2">
-        <v>0.85419999999999996</v>
-      </c>
-      <c r="T63" s="2">
-        <v>0.93520000000000003</v>
-      </c>
-      <c r="U63" s="2">
-        <v>0.95140000000000002</v>
-      </c>
-      <c r="V63" s="2">
-        <v>0.95960000000000001</v>
-      </c>
-      <c r="W63" s="2">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="X63" s="2">
-        <v>0.9929</v>
-      </c>
-      <c r="Y63" s="2">
-        <v>1.0044</v>
-      </c>
-      <c r="Z63" s="2">
-        <v>1.0221</v>
-      </c>
-      <c r="AA63" s="2">
-        <v>1.0392999999999999</v>
-      </c>
-      <c r="AB63" s="2">
-        <v>1.0658000000000001</v>
-      </c>
-      <c r="AC63" s="2">
-        <v>1.111</v>
-      </c>
-      <c r="AD63" s="2">
-        <v>1.1281000000000001</v>
-      </c>
-      <c r="AE63" s="2">
-        <v>1.1324000000000001</v>
-      </c>
-      <c r="AF63" s="2">
-        <v>1.1476999999999999</v>
-      </c>
-      <c r="AG63" s="2">
-        <v>1.1698999999999999</v>
-      </c>
-      <c r="AH63" s="2">
-        <v>1.1867000000000001</v>
-      </c>
-      <c r="AI63" s="2">
-        <v>1.2082999999999999</v>
-      </c>
-      <c r="AJ63" s="2">
-        <v>1.2439</v>
-      </c>
-      <c r="AK63" s="2">
-        <v>1.2606999999999999</v>
-      </c>
-      <c r="AL63" s="2">
-        <v>1.2652000000000001</v>
-      </c>
-      <c r="AM63" s="2">
-        <v>1.2786999999999999</v>
-      </c>
-      <c r="AN63" s="2">
-        <v>1.2763</v>
-      </c>
-      <c r="AO63" s="2">
-        <v>1.2835000000000001</v>
-      </c>
-      <c r="AP63" s="2">
-        <v>1.2775000000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="3">
-        <v>6.3E-2</v>
-      </c>
-      <c r="C64" s="3">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="D64" s="3">
-        <v>7.0099999999999996E-2</v>
-      </c>
-      <c r="E64" s="3">
-        <v>7.2700000000000001E-2</v>
-      </c>
-      <c r="F64" s="3">
-        <v>7.8700000000000006E-2</v>
-      </c>
-      <c r="G64" s="3">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="H64" s="3">
-        <v>8.9200000000000002E-2</v>
-      </c>
-      <c r="I64" s="3">
-        <v>0.1003</v>
-      </c>
-      <c r="J64" s="3">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="K64" s="3">
-        <v>0.1346</v>
-      </c>
-      <c r="L64" s="3">
-        <v>0.1618</v>
-      </c>
-      <c r="M64" s="3">
-        <v>0.1953</v>
-      </c>
-      <c r="N64" s="3">
-        <v>0.2326</v>
-      </c>
-      <c r="O64" s="3">
-        <v>0.29420000000000002</v>
-      </c>
-      <c r="P64" s="3">
-        <v>0.36480000000000001</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>0.44869999999999999</v>
-      </c>
-      <c r="R64" s="3">
-        <v>0.52839999999999998</v>
-      </c>
-      <c r="S64" s="3">
-        <v>0.64710000000000001</v>
-      </c>
-      <c r="T64" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="U64" s="3">
-        <v>0.93049999999999999</v>
-      </c>
-      <c r="V64" s="3">
-        <v>0.9163</v>
-      </c>
-      <c r="W64" s="3">
-        <v>0.94540000000000002</v>
-      </c>
-      <c r="X64" s="3">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="Y64" s="3">
-        <v>0.97030000000000005</v>
-      </c>
-      <c r="Z64" s="3">
-        <v>1.0006999999999999</v>
-      </c>
-      <c r="AA64" s="3">
-        <v>1.0157</v>
-      </c>
-      <c r="AB64" s="3">
-        <v>1.0509999999999999</v>
-      </c>
-      <c r="AC64" s="3">
-        <v>1.0629999999999999</v>
-      </c>
-      <c r="AD64" s="3">
-        <v>1.0766</v>
-      </c>
-      <c r="AE64" s="3">
-        <v>1.1266</v>
-      </c>
-      <c r="AF64" s="3">
-        <v>1.1363000000000001</v>
-      </c>
-      <c r="AG64" s="3">
-        <v>1.1656</v>
-      </c>
-      <c r="AH64" s="3">
-        <v>1.1843999999999999</v>
-      </c>
-      <c r="AI64" s="3">
-        <v>1.2054</v>
-      </c>
-      <c r="AJ64" s="3">
-        <v>1.2218</v>
-      </c>
-      <c r="AK64" s="3">
-        <v>1.2416</v>
-      </c>
-      <c r="AL64" s="3">
-        <v>1.2470000000000001</v>
-      </c>
-      <c r="AM64" s="3">
-        <v>1.2519</v>
-      </c>
-      <c r="AN64" s="3">
-        <v>1.2709999999999999</v>
-      </c>
-      <c r="AO64" s="3">
-        <v>1.2703</v>
-      </c>
-      <c r="AP64" s="3">
-        <v>1.2683</v>
+      <c r="K64" s="2">
+        <v>0.15290000000000001</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0.184</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0.23180000000000001</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0.28110000000000002</v>
+      </c>
+      <c r="O64" s="2">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0.45529999999999998</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>0.56169999999999998</v>
+      </c>
+      <c r="R64" s="2">
+        <v>0.66839999999999999</v>
+      </c>
+      <c r="S64" s="2">
+        <v>0.80610000000000004</v>
+      </c>
+      <c r="T64" s="2">
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="U64" s="2">
+        <v>0.93559999999999999</v>
+      </c>
+      <c r="V64" s="2">
+        <v>0.93630000000000002</v>
+      </c>
+      <c r="W64" s="2">
+        <v>0.9506</v>
+      </c>
+      <c r="X64" s="2">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>0.99229999999999996</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>1.0019</v>
+      </c>
+      <c r="AB64" s="2">
+        <v>1.0524</v>
+      </c>
+      <c r="AC64" s="2">
+        <v>1.0583</v>
+      </c>
+      <c r="AD64" s="2">
+        <v>1.0785</v>
+      </c>
+      <c r="AE64" s="2">
+        <v>1.0822000000000001</v>
+      </c>
+      <c r="AF64" s="2">
+        <v>1.1043000000000001</v>
+      </c>
+      <c r="AG64" s="2">
+        <v>1.1293</v>
+      </c>
+      <c r="AH64" s="2">
+        <v>1.1467000000000001</v>
+      </c>
+      <c r="AI64" s="2">
+        <v>1.1689000000000001</v>
+      </c>
+      <c r="AJ64" s="2">
+        <v>1.1939</v>
+      </c>
+      <c r="AK64" s="2">
+        <v>1.2152000000000001</v>
+      </c>
+      <c r="AL64" s="2">
+        <v>1.2457</v>
+      </c>
+      <c r="AM64" s="2">
+        <v>1.2632000000000001</v>
+      </c>
+      <c r="AN64" s="2">
+        <v>1.2581</v>
+      </c>
+      <c r="AO64" s="2">
+        <v>1.2343999999999999</v>
+      </c>
+      <c r="AP64" s="2">
+        <v>1.2615000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8495,1279 +8618,1279 @@
         <v>0</v>
       </c>
       <c r="B65" s="2">
-        <v>6.4699999999999994E-2</v>
+        <v>6.2100000000000002E-2</v>
       </c>
       <c r="C65" s="2">
         <v>6.5600000000000006E-2</v>
       </c>
       <c r="D65" s="2">
-        <v>6.9400000000000003E-2</v>
+        <v>6.9900000000000004E-2</v>
       </c>
       <c r="E65" s="2">
         <v>7.2900000000000006E-2</v>
       </c>
       <c r="F65" s="2">
-        <v>7.8600000000000003E-2</v>
+        <v>7.8399999999999997E-2</v>
       </c>
       <c r="G65" s="2">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="H65" s="2">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0.1052</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0.1275</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0.15010000000000001</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0.18429999999999999</v>
+      </c>
+      <c r="M65" s="2">
+        <v>0.2283</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0.28189999999999998</v>
+      </c>
+      <c r="O65" s="2">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="P65" s="2">
+        <v>0.44350000000000001</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>0.5514</v>
+      </c>
+      <c r="R65" s="2">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="S65" s="2">
+        <v>0.8206</v>
+      </c>
+      <c r="T65" s="2">
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="U65" s="2">
+        <v>0.9355</v>
+      </c>
+      <c r="V65" s="2">
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="W65" s="2">
+        <v>0.95279999999999998</v>
+      </c>
+      <c r="X65" s="2">
+        <v>0.97330000000000005</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>1.0102</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>1.0317000000000001</v>
+      </c>
+      <c r="AB65" s="2">
+        <v>1.077</v>
+      </c>
+      <c r="AC65" s="2">
+        <v>1.0773999999999999</v>
+      </c>
+      <c r="AD65" s="2">
+        <v>1.0952999999999999</v>
+      </c>
+      <c r="AE65" s="2">
+        <v>1.1034999999999999</v>
+      </c>
+      <c r="AF65" s="2">
+        <v>1.1229</v>
+      </c>
+      <c r="AG65" s="2">
+        <v>1.151</v>
+      </c>
+      <c r="AH65" s="2">
+        <v>1.1717</v>
+      </c>
+      <c r="AI65" s="2">
+        <v>1.1978</v>
+      </c>
+      <c r="AJ65" s="2">
+        <v>1.2279</v>
+      </c>
+      <c r="AK65" s="2">
+        <v>1.2495000000000001</v>
+      </c>
+      <c r="AL65" s="2">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="AM65" s="2">
+        <v>1.2741</v>
+      </c>
+      <c r="AN65" s="2">
+        <v>1.2870999999999999</v>
+      </c>
+      <c r="AO65" s="2">
+        <v>1.2894000000000001</v>
+      </c>
+      <c r="AP65" s="2">
+        <v>1.2961</v>
+      </c>
+    </row>
+    <row r="66" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C66" s="3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D66" s="3">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="F66" s="3">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="G66" s="3">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="H66" s="3">
+        <v>9.1700000000000004E-2</v>
+      </c>
+      <c r="I66" s="3">
+        <v>9.8299999999999998E-2</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0.1179</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0.13869999999999999</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0.1641</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0.1963</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0.23730000000000001</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0.3039</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0.37780000000000002</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0.46060000000000001</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0.54590000000000005</v>
+      </c>
+      <c r="S66" s="3">
+        <v>0.67749999999999999</v>
+      </c>
+      <c r="T66" s="3">
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="V66" s="3">
+        <v>0.93740000000000001</v>
+      </c>
+      <c r="W66" s="3">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="X66" s="3">
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>1.0043</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>1.0255000000000001</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>1.0491999999999999</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>1.0638000000000001</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>1.0858000000000001</v>
+      </c>
+      <c r="AE66" s="3">
+        <v>1.131</v>
+      </c>
+      <c r="AF66" s="3">
+        <v>1.1476</v>
+      </c>
+      <c r="AG66" s="3">
+        <v>1.1741999999999999</v>
+      </c>
+      <c r="AH66" s="3">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="AI66" s="3">
+        <v>1.2141</v>
+      </c>
+      <c r="AJ66" s="3">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="AK66" s="3">
+        <v>1.2562</v>
+      </c>
+      <c r="AL66" s="3">
+        <v>1.2626999999999999</v>
+      </c>
+      <c r="AM66" s="3">
+        <v>1.2601</v>
+      </c>
+      <c r="AN66" s="3">
+        <v>1.2747999999999999</v>
+      </c>
+      <c r="AO66" s="3">
+        <v>1.2679</v>
+      </c>
+      <c r="AP66" s="3">
+        <v>1.2784</v>
+      </c>
+    </row>
+    <row r="67" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="2">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="C67" s="2">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="D67" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E67" s="2">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="F67" s="2">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G67" s="2">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="H67" s="2">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0.1065</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0.12659999999999999</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0.1527</v>
+      </c>
+      <c r="L67" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0.2326</v>
+      </c>
+      <c r="N67" s="2">
+        <v>0.28060000000000002</v>
+      </c>
+      <c r="O67" s="2">
+        <v>0.36620000000000003</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0.44919999999999999</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>0.55689999999999995</v>
+      </c>
+      <c r="R67" s="2">
+        <v>0.66679999999999995</v>
+      </c>
+      <c r="S67" s="2">
+        <v>0.80569999999999997</v>
+      </c>
+      <c r="T67" s="2">
+        <v>0.92130000000000001</v>
+      </c>
+      <c r="U67" s="2">
+        <v>0.94020000000000004</v>
+      </c>
+      <c r="V67" s="2">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="W67" s="2">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="X67" s="2">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>1.0215000000000001</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>1.0490999999999999</v>
+      </c>
+      <c r="AB67" s="2">
+        <v>1.0838000000000001</v>
+      </c>
+      <c r="AC67" s="2">
+        <v>1.0875999999999999</v>
+      </c>
+      <c r="AD67" s="2">
+        <v>1.1027</v>
+      </c>
+      <c r="AE67" s="2">
+        <v>1.1094999999999999</v>
+      </c>
+      <c r="AF67" s="2">
+        <v>1.1209</v>
+      </c>
+      <c r="AG67" s="2">
+        <v>1.147</v>
+      </c>
+      <c r="AH67" s="2">
+        <v>1.1716</v>
+      </c>
+      <c r="AI67" s="2">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="AJ67" s="2">
+        <v>1.226</v>
+      </c>
+      <c r="AK67" s="2">
+        <v>1.2517</v>
+      </c>
+      <c r="AL67" s="2">
+        <v>1.2585</v>
+      </c>
+      <c r="AM67" s="2">
+        <v>1.2930999999999999</v>
+      </c>
+      <c r="AN67" s="2">
+        <v>1.2894000000000001</v>
+      </c>
+      <c r="AO67" s="2">
+        <v>1.2927999999999999</v>
+      </c>
+      <c r="AP67" s="2">
+        <v>1.2702</v>
+      </c>
+    </row>
+    <row r="68" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="3">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="C68" s="3">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="D68" s="3">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="E68" s="3">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="F68" s="3">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="G68" s="3">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="H68" s="3">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="I68" s="3">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="J68" s="3">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="K68" s="3">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="L68" s="3">
+        <v>0.15970000000000001</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0.1966</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0.23680000000000001</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0.37340000000000001</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0.45490000000000003</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0.55269999999999997</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0.66749999999999998</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0.93710000000000004</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0.9294</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0.95179999999999998</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0.97330000000000005</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>1.0034000000000001</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>1.0181</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>1.0477000000000001</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>1.0625</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>1.0823</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>1.1281000000000001</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>1.1425000000000001</v>
+      </c>
+      <c r="AG68" s="3">
+        <v>1.1651</v>
+      </c>
+      <c r="AH68" s="3">
+        <v>1.1785000000000001</v>
+      </c>
+      <c r="AI68" s="3">
+        <v>1.2036</v>
+      </c>
+      <c r="AJ68" s="3">
+        <v>1.2286999999999999</v>
+      </c>
+      <c r="AK68" s="3">
+        <v>1.2515000000000001</v>
+      </c>
+      <c r="AL68" s="3">
+        <v>1.2524999999999999</v>
+      </c>
+      <c r="AM68" s="3">
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="AN68" s="3">
+        <v>1.2723</v>
+      </c>
+      <c r="AO68" s="3">
+        <v>1.2599</v>
+      </c>
+      <c r="AP68" s="3">
+        <v>1.2683</v>
+      </c>
+    </row>
+    <row r="69" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C69" s="2">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="D69" s="2">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="E69" s="2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F69" s="2">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G69" s="2">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="H69" s="2">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0.1043</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0.1226</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0.1484</v>
+      </c>
+      <c r="L69" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="M69" s="2">
+        <v>0.2228</v>
+      </c>
+      <c r="N69" s="2">
+        <v>0.27550000000000002</v>
+      </c>
+      <c r="O69" s="2">
+        <v>0.35349999999999998</v>
+      </c>
+      <c r="P69" s="2">
+        <v>0.44019999999999998</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>0.53580000000000005</v>
+      </c>
+      <c r="R69" s="2">
+        <v>0.63590000000000002</v>
+      </c>
+      <c r="S69" s="2">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="T69" s="2">
+        <v>0.91190000000000004</v>
+      </c>
+      <c r="U69" s="2">
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="V69" s="2">
+        <v>0.9395</v>
+      </c>
+      <c r="W69" s="2">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="X69" s="2">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="Y69" s="2">
+        <v>0.98419999999999996</v>
+      </c>
+      <c r="Z69" s="2">
+        <v>1.0275000000000001</v>
+      </c>
+      <c r="AA69" s="2">
+        <v>1.0387999999999999</v>
+      </c>
+      <c r="AB69" s="2">
+        <v>1.0778000000000001</v>
+      </c>
+      <c r="AC69" s="2">
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="AD69" s="2">
+        <v>1.099</v>
+      </c>
+      <c r="AE69" s="2">
+        <v>1.1049</v>
+      </c>
+      <c r="AF69" s="2">
+        <v>1.1185</v>
+      </c>
+      <c r="AG69" s="2">
+        <v>1.1446000000000001</v>
+      </c>
+      <c r="AH69" s="2">
+        <v>1.1637999999999999</v>
+      </c>
+      <c r="AI69" s="2">
+        <v>1.1977</v>
+      </c>
+      <c r="AJ69" s="2">
+        <v>1.2249000000000001</v>
+      </c>
+      <c r="AK69" s="2">
+        <v>1.2463</v>
+      </c>
+      <c r="AL69" s="2">
+        <v>1.2557</v>
+      </c>
+      <c r="AM69" s="2">
+        <v>1.2762</v>
+      </c>
+      <c r="AN69" s="2">
+        <v>1.2796000000000001</v>
+      </c>
+      <c r="AO69" s="2">
+        <v>1.2827999999999999</v>
+      </c>
+      <c r="AP69" s="2">
+        <v>1.2982</v>
+      </c>
+    </row>
+    <row r="70" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="3">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="C70" s="3">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="D70" s="3">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="E70" s="3">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="F70" s="3">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="G70" s="3">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="H70" s="3">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0.1148</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0.1598</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0.19259999999999999</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0.23369999999999999</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0.29060000000000002</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0.36430000000000001</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0.44319999999999998</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0.53339999999999999</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0.64670000000000005</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0.83089999999999997</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0.93159999999999998</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0.94669999999999999</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0.9677</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0.97070000000000001</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>1.0022</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>1.0122</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>1.0446</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>1.0599000000000001</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>1.0814999999999999</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>1.1281000000000001</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>1.1351</v>
+      </c>
+      <c r="AG70" s="3">
+        <v>1.1626000000000001</v>
+      </c>
+      <c r="AH70" s="3">
+        <v>1.1862999999999999</v>
+      </c>
+      <c r="AI70" s="3">
+        <v>1.2101</v>
+      </c>
+      <c r="AJ70" s="3">
+        <v>1.2302</v>
+      </c>
+      <c r="AK70" s="3">
+        <v>1.2455000000000001</v>
+      </c>
+      <c r="AL70" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="AM70" s="3">
+        <v>1.2717000000000001</v>
+      </c>
+      <c r="AN70" s="3">
+        <v>1.2803</v>
+      </c>
+      <c r="AO70" s="3">
+        <v>1.2734000000000001</v>
+      </c>
+      <c r="AP70" s="3">
+        <v>1.2831999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="C71" s="2">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="D71" s="2">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="E71" s="2">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="F71" s="2">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="G71" s="2">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="H71" s="2">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0.1048</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0.154</v>
+      </c>
+      <c r="L71" s="2">
+        <v>0.1812</v>
+      </c>
+      <c r="M71" s="2">
+        <v>0.2258</v>
+      </c>
+      <c r="N71" s="2">
+        <v>0.27910000000000001</v>
+      </c>
+      <c r="O71" s="2">
+        <v>0.35930000000000001</v>
+      </c>
+      <c r="P71" s="2">
+        <v>0.44629999999999997</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>0.55020000000000002</v>
+      </c>
+      <c r="R71" s="2">
+        <v>0.72560000000000002</v>
+      </c>
+      <c r="S71" s="2">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="T71" s="2">
+        <v>0.93540000000000001</v>
+      </c>
+      <c r="U71" s="2">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="V71" s="2">
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="W71" s="2">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="X71" s="2">
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="Y71" s="2">
+        <v>1.0008999999999999</v>
+      </c>
+      <c r="Z71" s="2">
+        <v>1.0306999999999999</v>
+      </c>
+      <c r="AA71" s="2">
+        <v>1.0445</v>
+      </c>
+      <c r="AB71" s="2">
+        <v>1.0686</v>
+      </c>
+      <c r="AC71" s="2">
+        <v>1.0911</v>
+      </c>
+      <c r="AD71" s="2">
+        <v>1.1408</v>
+      </c>
+      <c r="AE71" s="2">
+        <v>1.1556</v>
+      </c>
+      <c r="AF71" s="2">
+        <v>1.1621999999999999</v>
+      </c>
+      <c r="AG71" s="2">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="AH71" s="2">
+        <v>1.2077</v>
+      </c>
+      <c r="AI71" s="2">
+        <v>1.2323999999999999</v>
+      </c>
+      <c r="AJ71" s="2">
+        <v>1.2459</v>
+      </c>
+      <c r="AK71" s="2">
+        <v>1.2501</v>
+      </c>
+      <c r="AL71" s="2">
+        <v>1.2612000000000001</v>
+      </c>
+      <c r="AM71" s="2">
+        <v>1.2873000000000001</v>
+      </c>
+      <c r="AN71" s="2">
+        <v>1.2853000000000001</v>
+      </c>
+      <c r="AO71" s="2">
+        <v>1.2954000000000001</v>
+      </c>
+      <c r="AP71" s="2">
+        <v>1.2956000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="3">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="C72" s="3">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="D72" s="3">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="E72" s="3">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="F72" s="3">
+        <v>7.51E-2</v>
+      </c>
+      <c r="G72" s="3">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="H72" s="3">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="I72" s="3">
+        <v>9.9299999999999999E-2</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0.1331</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0.19159999999999999</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0.23680000000000001</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0.29520000000000002</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0.36670000000000003</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0.44340000000000002</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0.5282</v>
+      </c>
+      <c r="S72" s="3">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="T72" s="3">
+        <v>0.84740000000000004</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="V72" s="3">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="W72" s="3">
+        <v>0.95689999999999997</v>
+      </c>
+      <c r="X72" s="3">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>1.0071000000000001</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>1.0170999999999999</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>1.0496000000000001</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>1.069</v>
+      </c>
+      <c r="AD72" s="3">
+        <v>1.0941000000000001</v>
+      </c>
+      <c r="AE72" s="3">
+        <v>1.1393</v>
+      </c>
+      <c r="AF72" s="3">
+        <v>1.1498999999999999</v>
+      </c>
+      <c r="AG72" s="3">
+        <v>1.1753</v>
+      </c>
+      <c r="AH72" s="3">
+        <v>1.1998</v>
+      </c>
+      <c r="AI72" s="3">
+        <v>1.2202999999999999</v>
+      </c>
+      <c r="AJ72" s="3">
+        <v>1.2377</v>
+      </c>
+      <c r="AK72" s="3">
+        <v>1.2474000000000001</v>
+      </c>
+      <c r="AL72" s="3">
+        <v>1.2586999999999999</v>
+      </c>
+      <c r="AM72" s="3">
+        <v>1.2699</v>
+      </c>
+      <c r="AN72" s="3">
+        <v>1.2837000000000001</v>
+      </c>
+      <c r="AO72" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="AP72" s="3">
+        <v>1.2977000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="C73" s="2">
+        <v>6.59E-2</v>
+      </c>
+      <c r="D73" s="2">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="E73" s="2">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="F73" s="2">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="G73" s="2">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H73" s="2">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0.15210000000000001</v>
+      </c>
+      <c r="L73" s="2">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="M73" s="2">
+        <v>0.23150000000000001</v>
+      </c>
+      <c r="N73" s="2">
+        <v>0.2823</v>
+      </c>
+      <c r="O73" s="2">
+        <v>0.3659</v>
+      </c>
+      <c r="P73" s="2">
+        <v>0.44929999999999998</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>0.55349999999999999</v>
+      </c>
+      <c r="R73" s="2">
+        <v>0.66959999999999997</v>
+      </c>
+      <c r="S73" s="2">
+        <v>0.80379999999999996</v>
+      </c>
+      <c r="T73" s="2">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="U73" s="2">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="V73" s="2">
+        <v>0.94969999999999999</v>
+      </c>
+      <c r="W73" s="2">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="X73" s="2">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="Y73" s="2">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="Z73" s="2">
+        <v>1.0407</v>
+      </c>
+      <c r="AA73" s="2">
+        <v>1.0530999999999999</v>
+      </c>
+      <c r="AB73" s="2">
+        <v>1.0911</v>
+      </c>
+      <c r="AC73" s="2">
+        <v>1.0922000000000001</v>
+      </c>
+      <c r="AD73" s="2">
+        <v>1.1115999999999999</v>
+      </c>
+      <c r="AE73" s="2">
+        <v>1.1209</v>
+      </c>
+      <c r="AF73" s="2">
+        <v>1.1349</v>
+      </c>
+      <c r="AG73" s="2">
+        <v>1.1596</v>
+      </c>
+      <c r="AH73" s="2">
+        <v>1.1777</v>
+      </c>
+      <c r="AI73" s="2">
+        <v>1.2018</v>
+      </c>
+      <c r="AJ73" s="2">
+        <v>1.2306999999999999</v>
+      </c>
+      <c r="AK73" s="2">
+        <v>1.2462</v>
+      </c>
+      <c r="AL73" s="2">
+        <v>1.2555000000000001</v>
+      </c>
+      <c r="AM73" s="2">
+        <v>1.2892999999999999</v>
+      </c>
+      <c r="AN73" s="2">
+        <v>1.2847</v>
+      </c>
+      <c r="AO73" s="2">
+        <v>1.2911999999999999</v>
+      </c>
+      <c r="AP73" s="2">
+        <v>1.2977000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="3">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="C74" s="3">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="D74" s="3">
+        <v>7.1300000000000002E-2</v>
+      </c>
+      <c r="E74" s="3">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="F74" s="3">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="G74" s="3">
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="H65" s="2">
-        <v>9.3100000000000002E-2</v>
-      </c>
-      <c r="I65" s="2">
-        <v>0.1067</v>
-      </c>
-      <c r="J65" s="2">
-        <v>0.12509999999999999</v>
-      </c>
-      <c r="K65" s="2">
-        <v>0.15290000000000001</v>
-      </c>
-      <c r="L65" s="2">
-        <v>0.184</v>
-      </c>
-      <c r="M65" s="2">
-        <v>0.23180000000000001</v>
-      </c>
-      <c r="N65" s="2">
-        <v>0.28110000000000002</v>
-      </c>
-      <c r="O65" s="2">
-        <v>0.36849999999999999</v>
-      </c>
-      <c r="P65" s="2">
-        <v>0.45529999999999998</v>
-      </c>
-      <c r="Q65" s="2">
-        <v>0.56169999999999998</v>
-      </c>
-      <c r="R65" s="2">
-        <v>0.66839999999999999</v>
-      </c>
-      <c r="S65" s="2">
-        <v>0.80610000000000004</v>
-      </c>
-      <c r="T65" s="2">
-        <v>0.92430000000000001</v>
-      </c>
-      <c r="U65" s="2">
-        <v>0.93559999999999999</v>
-      </c>
-      <c r="V65" s="2">
-        <v>0.93630000000000002</v>
-      </c>
-      <c r="W65" s="2">
-        <v>0.9506</v>
-      </c>
-      <c r="X65" s="2">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="Y65" s="2">
-        <v>0.94159999999999999</v>
-      </c>
-      <c r="Z65" s="2">
-        <v>0.99229999999999996</v>
-      </c>
-      <c r="AA65" s="2">
-        <v>1.0019</v>
-      </c>
-      <c r="AB65" s="2">
-        <v>1.0524</v>
-      </c>
-      <c r="AC65" s="2">
-        <v>1.0583</v>
-      </c>
-      <c r="AD65" s="2">
-        <v>1.0785</v>
-      </c>
-      <c r="AE65" s="2">
-        <v>1.0822000000000001</v>
-      </c>
-      <c r="AF65" s="2">
-        <v>1.1043000000000001</v>
-      </c>
-      <c r="AG65" s="2">
-        <v>1.1293</v>
-      </c>
-      <c r="AH65" s="2">
-        <v>1.1467000000000001</v>
-      </c>
-      <c r="AI65" s="2">
-        <v>1.1689000000000001</v>
-      </c>
-      <c r="AJ65" s="2">
-        <v>1.1939</v>
-      </c>
-      <c r="AK65" s="2">
-        <v>1.2152000000000001</v>
-      </c>
-      <c r="AL65" s="2">
-        <v>1.2457</v>
-      </c>
-      <c r="AM65" s="2">
-        <v>1.2632000000000001</v>
-      </c>
-      <c r="AN65" s="2">
-        <v>1.2581</v>
-      </c>
-      <c r="AO65" s="2">
-        <v>1.2343999999999999</v>
-      </c>
-      <c r="AP65" s="2">
-        <v>1.2615000000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="2">
-        <v>6.2100000000000002E-2</v>
-      </c>
-      <c r="C66" s="2">
-        <v>6.5600000000000006E-2</v>
-      </c>
-      <c r="D66" s="2">
-        <v>6.9900000000000004E-2</v>
-      </c>
-      <c r="E66" s="2">
-        <v>7.2900000000000006E-2</v>
-      </c>
-      <c r="F66" s="2">
-        <v>7.8399999999999997E-2</v>
-      </c>
-      <c r="G66" s="2">
-        <v>8.4599999999999995E-2</v>
-      </c>
-      <c r="H66" s="2">
-        <v>9.1800000000000007E-2</v>
-      </c>
-      <c r="I66" s="2">
-        <v>0.1052</v>
-      </c>
-      <c r="J66" s="2">
-        <v>0.1275</v>
-      </c>
-      <c r="K66" s="2">
-        <v>0.15010000000000001</v>
-      </c>
-      <c r="L66" s="2">
-        <v>0.18429999999999999</v>
-      </c>
-      <c r="M66" s="2">
-        <v>0.2283</v>
-      </c>
-      <c r="N66" s="2">
-        <v>0.28189999999999998</v>
-      </c>
-      <c r="O66" s="2">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="P66" s="2">
-        <v>0.44350000000000001</v>
-      </c>
-      <c r="Q66" s="2">
-        <v>0.5514</v>
-      </c>
-      <c r="R66" s="2">
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="S66" s="2">
-        <v>0.8206</v>
-      </c>
-      <c r="T66" s="2">
-        <v>0.92359999999999998</v>
-      </c>
-      <c r="U66" s="2">
-        <v>0.9355</v>
-      </c>
-      <c r="V66" s="2">
-        <v>0.93640000000000001</v>
-      </c>
-      <c r="W66" s="2">
-        <v>0.95279999999999998</v>
-      </c>
-      <c r="X66" s="2">
-        <v>0.97330000000000005</v>
-      </c>
-      <c r="Y66" s="2">
-        <v>0.98209999999999997</v>
-      </c>
-      <c r="Z66" s="2">
-        <v>1.0102</v>
-      </c>
-      <c r="AA66" s="2">
-        <v>1.0317000000000001</v>
-      </c>
-      <c r="AB66" s="2">
-        <v>1.077</v>
-      </c>
-      <c r="AC66" s="2">
-        <v>1.0773999999999999</v>
-      </c>
-      <c r="AD66" s="2">
-        <v>1.0952999999999999</v>
-      </c>
-      <c r="AE66" s="2">
-        <v>1.1034999999999999</v>
-      </c>
-      <c r="AF66" s="2">
-        <v>1.1229</v>
-      </c>
-      <c r="AG66" s="2">
-        <v>1.151</v>
-      </c>
-      <c r="AH66" s="2">
-        <v>1.1717</v>
-      </c>
-      <c r="AI66" s="2">
-        <v>1.1978</v>
-      </c>
-      <c r="AJ66" s="2">
-        <v>1.2279</v>
-      </c>
-      <c r="AK66" s="2">
-        <v>1.2495000000000001</v>
-      </c>
-      <c r="AL66" s="2">
-        <v>1.2589999999999999</v>
-      </c>
-      <c r="AM66" s="2">
-        <v>1.2741</v>
-      </c>
-      <c r="AN66" s="2">
-        <v>1.2870999999999999</v>
-      </c>
-      <c r="AO66" s="2">
-        <v>1.2894000000000001</v>
-      </c>
-      <c r="AP66" s="2">
-        <v>1.2961</v>
-      </c>
-    </row>
-    <row r="67" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" s="3">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="C67" s="3">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="D67" s="3">
-        <v>6.8900000000000003E-2</v>
-      </c>
-      <c r="E67" s="3">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="F67" s="3">
-        <v>7.6499999999999999E-2</v>
-      </c>
-      <c r="G67" s="3">
-        <v>8.3500000000000005E-2</v>
-      </c>
-      <c r="H67" s="3">
-        <v>9.1700000000000004E-2</v>
-      </c>
-      <c r="I67" s="3">
-        <v>9.8299999999999998E-2</v>
-      </c>
-      <c r="J67" s="3">
-        <v>0.1179</v>
-      </c>
-      <c r="K67" s="3">
-        <v>0.13869999999999999</v>
-      </c>
-      <c r="L67" s="3">
-        <v>0.1641</v>
-      </c>
-      <c r="M67" s="3">
-        <v>0.1963</v>
-      </c>
-      <c r="N67" s="3">
-        <v>0.23730000000000001</v>
-      </c>
-      <c r="O67" s="3">
-        <v>0.3039</v>
-      </c>
-      <c r="P67" s="3">
-        <v>0.37780000000000002</v>
-      </c>
-      <c r="Q67" s="3">
-        <v>0.46060000000000001</v>
-      </c>
-      <c r="R67" s="3">
-        <v>0.54590000000000005</v>
-      </c>
-      <c r="S67" s="3">
-        <v>0.67749999999999999</v>
-      </c>
-      <c r="T67" s="3">
-        <v>0.85619999999999996</v>
-      </c>
-      <c r="U67" s="3">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="V67" s="3">
-        <v>0.93740000000000001</v>
-      </c>
-      <c r="W67" s="3">
-        <v>0.96230000000000004</v>
-      </c>
-      <c r="X67" s="3">
-        <v>0.97260000000000002</v>
-      </c>
-      <c r="Y67" s="3">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="Z67" s="3">
-        <v>1.0043</v>
-      </c>
-      <c r="AA67" s="3">
-        <v>1.0255000000000001</v>
-      </c>
-      <c r="AB67" s="3">
-        <v>1.0491999999999999</v>
-      </c>
-      <c r="AC67" s="3">
-        <v>1.0638000000000001</v>
-      </c>
-      <c r="AD67" s="3">
-        <v>1.0858000000000001</v>
-      </c>
-      <c r="AE67" s="3">
-        <v>1.131</v>
-      </c>
-      <c r="AF67" s="3">
-        <v>1.1476</v>
-      </c>
-      <c r="AG67" s="3">
-        <v>1.1741999999999999</v>
-      </c>
-      <c r="AH67" s="3">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="AI67" s="3">
-        <v>1.2141</v>
-      </c>
-      <c r="AJ67" s="3">
-        <v>1.2370000000000001</v>
-      </c>
-      <c r="AK67" s="3">
-        <v>1.2562</v>
-      </c>
-      <c r="AL67" s="3">
-        <v>1.2626999999999999</v>
-      </c>
-      <c r="AM67" s="3">
-        <v>1.2601</v>
-      </c>
-      <c r="AN67" s="3">
-        <v>1.2747999999999999</v>
-      </c>
-      <c r="AO67" s="3">
-        <v>1.2679</v>
-      </c>
-      <c r="AP67" s="3">
-        <v>1.2784</v>
-      </c>
-    </row>
-    <row r="68" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="2">
-        <v>6.4199999999999993E-2</v>
-      </c>
-      <c r="C68" s="2">
-        <v>6.6799999999999998E-2</v>
-      </c>
-      <c r="D68" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E68" s="2">
-        <v>7.2700000000000001E-2</v>
-      </c>
-      <c r="F68" s="2">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="G68" s="2">
-        <v>8.3400000000000002E-2</v>
-      </c>
-      <c r="H68" s="2">
-        <v>9.3899999999999997E-2</v>
-      </c>
-      <c r="I68" s="2">
-        <v>0.1065</v>
-      </c>
-      <c r="J68" s="2">
-        <v>0.12659999999999999</v>
-      </c>
-      <c r="K68" s="2">
-        <v>0.1527</v>
-      </c>
-      <c r="L68" s="2">
-        <v>0.19</v>
-      </c>
-      <c r="M68" s="2">
-        <v>0.2326</v>
-      </c>
-      <c r="N68" s="2">
-        <v>0.28060000000000002</v>
-      </c>
-      <c r="O68" s="2">
-        <v>0.36620000000000003</v>
-      </c>
-      <c r="P68" s="2">
-        <v>0.44919999999999999</v>
-      </c>
-      <c r="Q68" s="2">
-        <v>0.55689999999999995</v>
-      </c>
-      <c r="R68" s="2">
-        <v>0.66679999999999995</v>
-      </c>
-      <c r="S68" s="2">
-        <v>0.80569999999999997</v>
-      </c>
-      <c r="T68" s="2">
-        <v>0.92130000000000001</v>
-      </c>
-      <c r="U68" s="2">
-        <v>0.94020000000000004</v>
-      </c>
-      <c r="V68" s="2">
-        <v>0.94840000000000002</v>
-      </c>
-      <c r="W68" s="2">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="X68" s="2">
-        <v>0.98309999999999997</v>
-      </c>
-      <c r="Y68" s="2">
-        <v>0.99209999999999998</v>
-      </c>
-      <c r="Z68" s="2">
-        <v>1.0215000000000001</v>
-      </c>
-      <c r="AA68" s="2">
-        <v>1.0490999999999999</v>
-      </c>
-      <c r="AB68" s="2">
-        <v>1.0838000000000001</v>
-      </c>
-      <c r="AC68" s="2">
-        <v>1.0875999999999999</v>
-      </c>
-      <c r="AD68" s="2">
-        <v>1.1027</v>
-      </c>
-      <c r="AE68" s="2">
-        <v>1.1094999999999999</v>
-      </c>
-      <c r="AF68" s="2">
-        <v>1.1209</v>
-      </c>
-      <c r="AG68" s="2">
-        <v>1.147</v>
-      </c>
-      <c r="AH68" s="2">
-        <v>1.1716</v>
-      </c>
-      <c r="AI68" s="2">
-        <v>1.2010000000000001</v>
-      </c>
-      <c r="AJ68" s="2">
-        <v>1.226</v>
-      </c>
-      <c r="AK68" s="2">
-        <v>1.2517</v>
-      </c>
-      <c r="AL68" s="2">
-        <v>1.2585</v>
-      </c>
-      <c r="AM68" s="2">
-        <v>1.2930999999999999</v>
-      </c>
-      <c r="AN68" s="2">
-        <v>1.2894000000000001</v>
-      </c>
-      <c r="AO68" s="2">
-        <v>1.2927999999999999</v>
-      </c>
-      <c r="AP68" s="2">
-        <v>1.2702</v>
-      </c>
-    </row>
-    <row r="69" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="3">
-        <v>6.4299999999999996E-2</v>
-      </c>
-      <c r="C69" s="3">
-        <v>6.6400000000000001E-2</v>
-      </c>
-      <c r="D69" s="3">
-        <v>6.9599999999999995E-2</v>
-      </c>
-      <c r="E69" s="3">
-        <v>7.2400000000000006E-2</v>
-      </c>
-      <c r="F69" s="3">
-        <v>7.6600000000000001E-2</v>
-      </c>
-      <c r="G69" s="3">
-        <v>8.1799999999999998E-2</v>
-      </c>
-      <c r="H69" s="3">
-        <v>8.9599999999999999E-2</v>
-      </c>
-      <c r="I69" s="3">
-        <v>9.9199999999999997E-2</v>
-      </c>
-      <c r="J69" s="3">
-        <v>0.11650000000000001</v>
-      </c>
-      <c r="K69" s="3">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="L69" s="3">
-        <v>0.15970000000000001</v>
-      </c>
-      <c r="M69" s="3">
-        <v>0.1966</v>
-      </c>
-      <c r="N69" s="3">
-        <v>0.23680000000000001</v>
-      </c>
-      <c r="O69" s="3">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="P69" s="3">
-        <v>0.37340000000000001</v>
-      </c>
-      <c r="Q69" s="3">
-        <v>0.45490000000000003</v>
-      </c>
-      <c r="R69" s="3">
-        <v>0.55269999999999997</v>
-      </c>
-      <c r="S69" s="3">
-        <v>0.66749999999999998</v>
-      </c>
-      <c r="T69" s="3">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="U69" s="3">
-        <v>0.93710000000000004</v>
-      </c>
-      <c r="V69" s="3">
-        <v>0.9294</v>
-      </c>
-      <c r="W69" s="3">
-        <v>0.95179999999999998</v>
-      </c>
-      <c r="X69" s="3">
-        <v>0.97040000000000004</v>
-      </c>
-      <c r="Y69" s="3">
-        <v>0.97330000000000005</v>
-      </c>
-      <c r="Z69" s="3">
-        <v>1.0034000000000001</v>
-      </c>
-      <c r="AA69" s="3">
-        <v>1.0181</v>
-      </c>
-      <c r="AB69" s="3">
-        <v>1.0477000000000001</v>
-      </c>
-      <c r="AC69" s="3">
-        <v>1.0625</v>
-      </c>
-      <c r="AD69" s="3">
-        <v>1.0823</v>
-      </c>
-      <c r="AE69" s="3">
-        <v>1.1281000000000001</v>
-      </c>
-      <c r="AF69" s="3">
-        <v>1.1425000000000001</v>
-      </c>
-      <c r="AG69" s="3">
-        <v>1.1651</v>
-      </c>
-      <c r="AH69" s="3">
-        <v>1.1785000000000001</v>
-      </c>
-      <c r="AI69" s="3">
-        <v>1.2036</v>
-      </c>
-      <c r="AJ69" s="3">
-        <v>1.2286999999999999</v>
-      </c>
-      <c r="AK69" s="3">
-        <v>1.2515000000000001</v>
-      </c>
-      <c r="AL69" s="3">
-        <v>1.2524999999999999</v>
-      </c>
-      <c r="AM69" s="3">
-        <v>1.2490000000000001</v>
-      </c>
-      <c r="AN69" s="3">
-        <v>1.2723</v>
-      </c>
-      <c r="AO69" s="3">
-        <v>1.2599</v>
-      </c>
-      <c r="AP69" s="3">
-        <v>1.2683</v>
-      </c>
-    </row>
-    <row r="70" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="2">
-        <v>6.25E-2</v>
-      </c>
-      <c r="C70" s="2">
-        <v>6.6400000000000001E-2</v>
-      </c>
-      <c r="D70" s="2">
-        <v>6.9099999999999995E-2</v>
-      </c>
-      <c r="E70" s="2">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="F70" s="2">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="G70" s="2">
-        <v>8.3599999999999994E-2</v>
-      </c>
-      <c r="H70" s="2">
-        <v>9.2200000000000004E-2</v>
-      </c>
-      <c r="I70" s="2">
-        <v>0.1043</v>
-      </c>
-      <c r="J70" s="2">
-        <v>0.1226</v>
-      </c>
-      <c r="K70" s="2">
-        <v>0.1484</v>
-      </c>
-      <c r="L70" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="M70" s="2">
-        <v>0.2228</v>
-      </c>
-      <c r="N70" s="2">
-        <v>0.27550000000000002</v>
-      </c>
-      <c r="O70" s="2">
-        <v>0.35349999999999998</v>
-      </c>
-      <c r="P70" s="2">
-        <v>0.44019999999999998</v>
-      </c>
-      <c r="Q70" s="2">
-        <v>0.53580000000000005</v>
-      </c>
-      <c r="R70" s="2">
-        <v>0.63590000000000002</v>
-      </c>
-      <c r="S70" s="2">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="T70" s="2">
-        <v>0.91190000000000004</v>
-      </c>
-      <c r="U70" s="2">
-        <v>0.93579999999999997</v>
-      </c>
-      <c r="V70" s="2">
-        <v>0.9395</v>
-      </c>
-      <c r="W70" s="2">
-        <v>0.95420000000000005</v>
-      </c>
-      <c r="X70" s="2">
-        <v>0.97629999999999995</v>
-      </c>
-      <c r="Y70" s="2">
-        <v>0.98419999999999996</v>
-      </c>
-      <c r="Z70" s="2">
-        <v>1.0275000000000001</v>
-      </c>
-      <c r="AA70" s="2">
-        <v>1.0387999999999999</v>
-      </c>
-      <c r="AB70" s="2">
-        <v>1.0778000000000001</v>
-      </c>
-      <c r="AC70" s="2">
-        <v>1.0860000000000001</v>
-      </c>
-      <c r="AD70" s="2">
-        <v>1.099</v>
-      </c>
-      <c r="AE70" s="2">
-        <v>1.1049</v>
-      </c>
-      <c r="AF70" s="2">
-        <v>1.1185</v>
-      </c>
-      <c r="AG70" s="2">
-        <v>1.1446000000000001</v>
-      </c>
-      <c r="AH70" s="2">
-        <v>1.1637999999999999</v>
-      </c>
-      <c r="AI70" s="2">
-        <v>1.1977</v>
-      </c>
-      <c r="AJ70" s="2">
-        <v>1.2249000000000001</v>
-      </c>
-      <c r="AK70" s="2">
-        <v>1.2463</v>
-      </c>
-      <c r="AL70" s="2">
-        <v>1.2557</v>
-      </c>
-      <c r="AM70" s="2">
-        <v>1.2762</v>
-      </c>
-      <c r="AN70" s="2">
-        <v>1.2796000000000001</v>
-      </c>
-      <c r="AO70" s="2">
-        <v>1.2827999999999999</v>
-      </c>
-      <c r="AP70" s="2">
-        <v>1.2982</v>
-      </c>
-    </row>
-    <row r="71" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B71" s="3">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="C71" s="3">
-        <v>6.6799999999999998E-2</v>
-      </c>
-      <c r="D71" s="3">
-        <v>7.0099999999999996E-2</v>
-      </c>
-      <c r="E71" s="3">
-        <v>7.2300000000000003E-2</v>
-      </c>
-      <c r="F71" s="3">
-        <v>7.7600000000000002E-2</v>
-      </c>
-      <c r="G71" s="3">
-        <v>8.0699999999999994E-2</v>
-      </c>
-      <c r="H71" s="3">
-        <v>9.0200000000000002E-2</v>
-      </c>
-      <c r="I71" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J71" s="3">
-        <v>0.1148</v>
-      </c>
-      <c r="K71" s="3">
-        <v>0.13739999999999999</v>
-      </c>
-      <c r="L71" s="3">
-        <v>0.1598</v>
-      </c>
-      <c r="M71" s="3">
-        <v>0.19259999999999999</v>
-      </c>
-      <c r="N71" s="3">
-        <v>0.23369999999999999</v>
-      </c>
-      <c r="O71" s="3">
-        <v>0.29060000000000002</v>
-      </c>
-      <c r="P71" s="3">
-        <v>0.36430000000000001</v>
-      </c>
-      <c r="Q71" s="3">
-        <v>0.44319999999999998</v>
-      </c>
-      <c r="R71" s="3">
-        <v>0.53339999999999999</v>
-      </c>
-      <c r="S71" s="3">
-        <v>0.64670000000000005</v>
-      </c>
-      <c r="T71" s="3">
-        <v>0.83089999999999997</v>
-      </c>
-      <c r="U71" s="3">
-        <v>0.93159999999999998</v>
-      </c>
-      <c r="V71" s="3">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="W71" s="3">
-        <v>0.94669999999999999</v>
-      </c>
-      <c r="X71" s="3">
-        <v>0.9677</v>
-      </c>
-      <c r="Y71" s="3">
-        <v>0.97070000000000001</v>
-      </c>
-      <c r="Z71" s="3">
-        <v>1.0022</v>
-      </c>
-      <c r="AA71" s="3">
-        <v>1.0122</v>
-      </c>
-      <c r="AB71" s="3">
-        <v>1.0446</v>
-      </c>
-      <c r="AC71" s="3">
-        <v>1.0599000000000001</v>
-      </c>
-      <c r="AD71" s="3">
-        <v>1.0814999999999999</v>
-      </c>
-      <c r="AE71" s="3">
-        <v>1.1281000000000001</v>
-      </c>
-      <c r="AF71" s="3">
-        <v>1.1351</v>
-      </c>
-      <c r="AG71" s="3">
-        <v>1.1626000000000001</v>
-      </c>
-      <c r="AH71" s="3">
-        <v>1.1862999999999999</v>
-      </c>
-      <c r="AI71" s="3">
-        <v>1.2101</v>
-      </c>
-      <c r="AJ71" s="3">
-        <v>1.2302</v>
-      </c>
-      <c r="AK71" s="3">
-        <v>1.2455000000000001</v>
-      </c>
-      <c r="AL71" s="3">
-        <v>1.26</v>
-      </c>
-      <c r="AM71" s="3">
-        <v>1.2717000000000001</v>
-      </c>
-      <c r="AN71" s="3">
-        <v>1.2803</v>
-      </c>
-      <c r="AO71" s="3">
-        <v>1.2734000000000001</v>
-      </c>
-      <c r="AP71" s="3">
-        <v>1.2831999999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="2">
-        <v>6.2799999999999995E-2</v>
-      </c>
-      <c r="C72" s="2">
-        <v>6.6100000000000006E-2</v>
-      </c>
-      <c r="D72" s="2">
-        <v>6.8099999999999994E-2</v>
-      </c>
-      <c r="E72" s="2">
-        <v>7.1800000000000003E-2</v>
-      </c>
-      <c r="F72" s="2">
-        <v>7.6100000000000001E-2</v>
-      </c>
-      <c r="G72" s="2">
-        <v>8.4099999999999994E-2</v>
-      </c>
-      <c r="H72" s="2">
-        <v>9.1899999999999996E-2</v>
-      </c>
-      <c r="I72" s="2">
-        <v>0.1048</v>
-      </c>
-      <c r="J72" s="2">
-        <v>0.12690000000000001</v>
-      </c>
-      <c r="K72" s="2">
-        <v>0.154</v>
-      </c>
-      <c r="L72" s="2">
-        <v>0.1812</v>
-      </c>
-      <c r="M72" s="2">
-        <v>0.2258</v>
-      </c>
-      <c r="N72" s="2">
-        <v>0.27910000000000001</v>
-      </c>
-      <c r="O72" s="2">
-        <v>0.35930000000000001</v>
-      </c>
-      <c r="P72" s="2">
-        <v>0.44629999999999997</v>
-      </c>
-      <c r="Q72" s="2">
-        <v>0.55020000000000002</v>
-      </c>
-      <c r="R72" s="2">
-        <v>0.72560000000000002</v>
-      </c>
-      <c r="S72" s="2">
-        <v>0.88539999999999996</v>
-      </c>
-      <c r="T72" s="2">
-        <v>0.93540000000000001</v>
-      </c>
-      <c r="U72" s="2">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="V72" s="2">
-        <v>0.96150000000000002</v>
-      </c>
-      <c r="W72" s="2">
-        <v>0.97589999999999999</v>
-      </c>
-      <c r="X72" s="2">
-        <v>0.99060000000000004</v>
-      </c>
-      <c r="Y72" s="2">
-        <v>1.0008999999999999</v>
-      </c>
-      <c r="Z72" s="2">
-        <v>1.0306999999999999</v>
-      </c>
-      <c r="AA72" s="2">
-        <v>1.0445</v>
-      </c>
-      <c r="AB72" s="2">
-        <v>1.0686</v>
-      </c>
-      <c r="AC72" s="2">
-        <v>1.0911</v>
-      </c>
-      <c r="AD72" s="2">
-        <v>1.1408</v>
-      </c>
-      <c r="AE72" s="2">
-        <v>1.1556</v>
-      </c>
-      <c r="AF72" s="2">
-        <v>1.1621999999999999</v>
-      </c>
-      <c r="AG72" s="2">
-        <v>1.1850000000000001</v>
-      </c>
-      <c r="AH72" s="2">
-        <v>1.2077</v>
-      </c>
-      <c r="AI72" s="2">
-        <v>1.2323999999999999</v>
-      </c>
-      <c r="AJ72" s="2">
-        <v>1.2459</v>
-      </c>
-      <c r="AK72" s="2">
-        <v>1.2501</v>
-      </c>
-      <c r="AL72" s="2">
-        <v>1.2612000000000001</v>
-      </c>
-      <c r="AM72" s="2">
-        <v>1.2873000000000001</v>
-      </c>
-      <c r="AN72" s="2">
-        <v>1.2853000000000001</v>
-      </c>
-      <c r="AO72" s="2">
-        <v>1.2954000000000001</v>
-      </c>
-      <c r="AP72" s="2">
-        <v>1.2956000000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="3">
-        <v>6.4799999999999996E-2</v>
-      </c>
-      <c r="C73" s="3">
-        <v>6.6299999999999998E-2</v>
-      </c>
-      <c r="D73" s="3">
-        <v>6.9099999999999995E-2</v>
-      </c>
-      <c r="E73" s="3">
-        <v>7.1800000000000003E-2</v>
-      </c>
-      <c r="F73" s="3">
-        <v>7.51E-2</v>
-      </c>
-      <c r="G73" s="3">
-        <v>8.0100000000000005E-2</v>
-      </c>
-      <c r="H73" s="3">
-        <v>9.0200000000000002E-2</v>
-      </c>
-      <c r="I73" s="3">
-        <v>9.9299999999999999E-2</v>
-      </c>
-      <c r="J73" s="3">
-        <v>0.11310000000000001</v>
-      </c>
-      <c r="K73" s="3">
-        <v>0.1331</v>
-      </c>
-      <c r="L73" s="3">
-        <v>0.15840000000000001</v>
-      </c>
-      <c r="M73" s="3">
-        <v>0.19159999999999999</v>
-      </c>
-      <c r="N73" s="3">
-        <v>0.23680000000000001</v>
-      </c>
-      <c r="O73" s="3">
-        <v>0.29520000000000002</v>
-      </c>
-      <c r="P73" s="3">
-        <v>0.36670000000000003</v>
-      </c>
-      <c r="Q73" s="3">
-        <v>0.44340000000000002</v>
-      </c>
-      <c r="R73" s="3">
-        <v>0.5282</v>
-      </c>
-      <c r="S73" s="3">
-        <v>0.64439999999999997</v>
-      </c>
-      <c r="T73" s="3">
-        <v>0.84740000000000004</v>
-      </c>
-      <c r="U73" s="3">
-        <v>0.94079999999999997</v>
-      </c>
-      <c r="V73" s="3">
-        <v>0.93910000000000005</v>
-      </c>
-      <c r="W73" s="3">
-        <v>0.95689999999999997</v>
-      </c>
-      <c r="X73" s="3">
-        <v>0.97450000000000003</v>
-      </c>
-      <c r="Y73" s="3">
-        <v>0.97250000000000003</v>
-      </c>
-      <c r="Z73" s="3">
-        <v>1.0071000000000001</v>
-      </c>
-      <c r="AA73" s="3">
-        <v>1.0170999999999999</v>
-      </c>
-      <c r="AB73" s="3">
-        <v>1.0496000000000001</v>
-      </c>
-      <c r="AC73" s="3">
-        <v>1.069</v>
-      </c>
-      <c r="AD73" s="3">
-        <v>1.0941000000000001</v>
-      </c>
-      <c r="AE73" s="3">
-        <v>1.1393</v>
-      </c>
-      <c r="AF73" s="3">
-        <v>1.1498999999999999</v>
-      </c>
-      <c r="AG73" s="3">
-        <v>1.1753</v>
-      </c>
-      <c r="AH73" s="3">
-        <v>1.1998</v>
-      </c>
-      <c r="AI73" s="3">
-        <v>1.2202999999999999</v>
-      </c>
-      <c r="AJ73" s="3">
-        <v>1.2377</v>
-      </c>
-      <c r="AK73" s="3">
+      <c r="H74" s="3">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="I74" s="3">
+        <v>9.8900000000000002E-2</v>
+      </c>
+      <c r="J74" s="3">
+        <v>0.1197</v>
+      </c>
+      <c r="K74" s="3">
+        <v>0.13669999999999999</v>
+      </c>
+      <c r="L74" s="3">
+        <v>0.1638</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0.20130000000000001</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0.23619999999999999</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0.30740000000000001</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0.37759999999999999</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0.4637</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0.54769999999999996</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0.67930000000000001</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0.79290000000000005</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0.97289999999999999</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0.97640000000000005</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>1.004</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>1.0227999999999999</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>1.0545</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>1.0633999999999999</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>1.0834999999999999</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>1.1336999999999999</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>1.1485000000000001</v>
+      </c>
+      <c r="AG74" s="3">
+        <v>1.1669</v>
+      </c>
+      <c r="AH74" s="3">
+        <v>1.1855</v>
+      </c>
+      <c r="AI74" s="3">
+        <v>1.2065999999999999</v>
+      </c>
+      <c r="AJ74" s="3">
+        <v>1.2358</v>
+      </c>
+      <c r="AK74" s="3">
         <v>1.2474000000000001</v>
       </c>
-      <c r="AL73" s="3">
-        <v>1.2586999999999999</v>
-      </c>
-      <c r="AM73" s="3">
-        <v>1.2699</v>
-      </c>
-      <c r="AN73" s="3">
-        <v>1.2837000000000001</v>
-      </c>
-      <c r="AO73" s="3">
-        <v>1.28</v>
-      </c>
-      <c r="AP73" s="3">
-        <v>1.2977000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="2">
-        <v>6.3399999999999998E-2</v>
-      </c>
-      <c r="C74" s="2">
-        <v>6.59E-2</v>
-      </c>
-      <c r="D74" s="2">
-        <v>6.9599999999999995E-2</v>
-      </c>
-      <c r="E74" s="2">
-        <v>7.2700000000000001E-2</v>
-      </c>
-      <c r="F74" s="2">
-        <v>7.8100000000000003E-2</v>
-      </c>
-      <c r="G74" s="2">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="H74" s="2">
-        <v>9.3299999999999994E-2</v>
-      </c>
-      <c r="I74" s="2">
-        <v>0.10440000000000001</v>
-      </c>
-      <c r="J74" s="2">
-        <v>0.12870000000000001</v>
-      </c>
-      <c r="K74" s="2">
-        <v>0.15210000000000001</v>
-      </c>
-      <c r="L74" s="2">
-        <v>0.18640000000000001</v>
-      </c>
-      <c r="M74" s="2">
-        <v>0.23150000000000001</v>
-      </c>
-      <c r="N74" s="2">
-        <v>0.2823</v>
-      </c>
-      <c r="O74" s="2">
-        <v>0.3659</v>
-      </c>
-      <c r="P74" s="2">
-        <v>0.44929999999999998</v>
-      </c>
-      <c r="Q74" s="2">
-        <v>0.55349999999999999</v>
-      </c>
-      <c r="R74" s="2">
-        <v>0.66959999999999997</v>
-      </c>
-      <c r="S74" s="2">
-        <v>0.80379999999999996</v>
-      </c>
-      <c r="T74" s="2">
-        <v>0.92410000000000003</v>
-      </c>
-      <c r="U74" s="2">
-        <v>0.94079999999999997</v>
-      </c>
-      <c r="V74" s="2">
-        <v>0.94969999999999999</v>
-      </c>
-      <c r="W74" s="2">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="X74" s="2">
-        <v>0.98219999999999996</v>
-      </c>
-      <c r="Y74" s="2">
-        <v>0.99550000000000005</v>
-      </c>
-      <c r="Z74" s="2">
-        <v>1.0407</v>
-      </c>
-      <c r="AA74" s="2">
-        <v>1.0530999999999999</v>
-      </c>
-      <c r="AB74" s="2">
-        <v>1.0911</v>
-      </c>
-      <c r="AC74" s="2">
-        <v>1.0922000000000001</v>
-      </c>
-      <c r="AD74" s="2">
-        <v>1.1115999999999999</v>
-      </c>
-      <c r="AE74" s="2">
-        <v>1.1209</v>
-      </c>
-      <c r="AF74" s="2">
-        <v>1.1349</v>
-      </c>
-      <c r="AG74" s="2">
-        <v>1.1596</v>
-      </c>
-      <c r="AH74" s="2">
-        <v>1.1777</v>
-      </c>
-      <c r="AI74" s="2">
-        <v>1.2018</v>
-      </c>
-      <c r="AJ74" s="2">
-        <v>1.2306999999999999</v>
-      </c>
-      <c r="AK74" s="2">
-        <v>1.2462</v>
-      </c>
-      <c r="AL74" s="2">
-        <v>1.2555000000000001</v>
-      </c>
-      <c r="AM74" s="2">
-        <v>1.2892999999999999</v>
-      </c>
-      <c r="AN74" s="2">
-        <v>1.2847</v>
-      </c>
-      <c r="AO74" s="2">
-        <v>1.2911999999999999</v>
-      </c>
-      <c r="AP74" s="2">
-        <v>1.2977000000000001</v>
+      <c r="AL74" s="3">
+        <v>1.2548999999999999</v>
+      </c>
+      <c r="AM74" s="3">
+        <v>1.2709999999999999</v>
+      </c>
+      <c r="AN74" s="3">
+        <v>1.2855000000000001</v>
+      </c>
+      <c r="AO74" s="3">
+        <v>1.2775000000000001</v>
+      </c>
+      <c r="AP74" s="3">
+        <v>1.27</v>
       </c>
     </row>
     <row r="75" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -9775,510 +9898,382 @@
         <v>1</v>
       </c>
       <c r="B75" s="3">
-        <v>6.3799999999999996E-2</v>
+        <v>6.4100000000000004E-2</v>
       </c>
       <c r="C75" s="3">
-        <v>6.7699999999999996E-2</v>
+        <v>6.6900000000000001E-2</v>
       </c>
       <c r="D75" s="3">
-        <v>7.1300000000000002E-2</v>
+        <v>6.9199999999999998E-2</v>
       </c>
       <c r="E75" s="3">
-        <v>7.2900000000000006E-2</v>
+        <v>7.22E-2</v>
       </c>
       <c r="F75" s="3">
-        <v>7.7399999999999997E-2</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="G75" s="3">
-        <v>8.2600000000000007E-2</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="H75" s="3">
-        <v>9.1300000000000006E-2</v>
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="I75" s="3">
-        <v>9.8900000000000002E-2</v>
+        <v>9.7100000000000006E-2</v>
       </c>
       <c r="J75" s="3">
-        <v>0.1197</v>
+        <v>0.11509999999999999</v>
       </c>
       <c r="K75" s="3">
-        <v>0.13669999999999999</v>
+        <v>0.13450000000000001</v>
       </c>
       <c r="L75" s="3">
-        <v>0.1638</v>
+        <v>0.15909999999999999</v>
       </c>
       <c r="M75" s="3">
-        <v>0.20130000000000001</v>
+        <v>0.19339999999999999</v>
       </c>
       <c r="N75" s="3">
-        <v>0.23619999999999999</v>
+        <v>0.2329</v>
       </c>
       <c r="O75" s="3">
-        <v>0.30740000000000001</v>
+        <v>0.29409999999999997</v>
       </c>
       <c r="P75" s="3">
-        <v>0.37759999999999999</v>
+        <v>0.3639</v>
       </c>
       <c r="Q75" s="3">
-        <v>0.4637</v>
+        <v>0.44550000000000001</v>
       </c>
       <c r="R75" s="3">
-        <v>0.54769999999999996</v>
+        <v>0.53110000000000002</v>
       </c>
       <c r="S75" s="3">
-        <v>0.67930000000000001</v>
+        <v>0.64890000000000003</v>
       </c>
       <c r="T75" s="3">
-        <v>0.79290000000000005</v>
+        <v>0.76219999999999999</v>
       </c>
       <c r="U75" s="3">
-        <v>0.93879999999999997</v>
+        <v>0.9194</v>
       </c>
       <c r="V75" s="3">
-        <v>0.93330000000000002</v>
+        <v>0.93520000000000003</v>
       </c>
       <c r="W75" s="3">
-        <v>0.95399999999999996</v>
+        <v>0.9446</v>
       </c>
       <c r="X75" s="3">
-        <v>0.97289999999999999</v>
+        <v>0.96340000000000003</v>
       </c>
       <c r="Y75" s="3">
-        <v>0.97640000000000005</v>
+        <v>0.96379999999999999</v>
       </c>
       <c r="Z75" s="3">
-        <v>1.004</v>
+        <v>0.99660000000000004</v>
       </c>
       <c r="AA75" s="3">
-        <v>1.0227999999999999</v>
+        <v>1.0066999999999999</v>
       </c>
       <c r="AB75" s="3">
-        <v>1.0545</v>
+        <v>1.0392999999999999</v>
       </c>
       <c r="AC75" s="3">
-        <v>1.0633999999999999</v>
+        <v>1.0888</v>
       </c>
       <c r="AD75" s="3">
-        <v>1.0834999999999999</v>
+        <v>1.1079000000000001</v>
       </c>
       <c r="AE75" s="3">
-        <v>1.1336999999999999</v>
+        <v>1.1149</v>
       </c>
       <c r="AF75" s="3">
-        <v>1.1485000000000001</v>
+        <v>1.1251</v>
       </c>
       <c r="AG75" s="3">
-        <v>1.1669</v>
+        <v>1.1505000000000001</v>
       </c>
       <c r="AH75" s="3">
-        <v>1.1855</v>
+        <v>1.1737</v>
       </c>
       <c r="AI75" s="3">
-        <v>1.2065999999999999</v>
+        <v>1.2041999999999999</v>
       </c>
       <c r="AJ75" s="3">
-        <v>1.2358</v>
+        <v>1.2351000000000001</v>
       </c>
       <c r="AK75" s="3">
-        <v>1.2474000000000001</v>
+        <v>1.2454000000000001</v>
       </c>
       <c r="AL75" s="3">
-        <v>1.2548999999999999</v>
+        <v>1.2533000000000001</v>
       </c>
       <c r="AM75" s="3">
-        <v>1.2709999999999999</v>
+        <v>1.2757000000000001</v>
       </c>
       <c r="AN75" s="3">
-        <v>1.2855000000000001</v>
+        <v>1.2924</v>
       </c>
       <c r="AO75" s="3">
-        <v>1.2775000000000001</v>
+        <v>1.2814000000000001</v>
       </c>
       <c r="AP75" s="3">
-        <v>1.27</v>
+        <v>1.2833000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B76" s="3">
-        <v>6.4100000000000004E-2</v>
-      </c>
-      <c r="C76" s="3">
-        <v>6.6900000000000001E-2</v>
-      </c>
-      <c r="D76" s="3">
-        <v>6.9199999999999998E-2</v>
-      </c>
-      <c r="E76" s="3">
-        <v>7.22E-2</v>
-      </c>
-      <c r="F76" s="3">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="G76" s="3">
-        <v>8.2299999999999998E-2</v>
-      </c>
-      <c r="H76" s="3">
-        <v>8.9499999999999996E-2</v>
-      </c>
-      <c r="I76" s="3">
-        <v>9.7100000000000006E-2</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0.11509999999999999</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0.13450000000000001</v>
-      </c>
-      <c r="L76" s="3">
-        <v>0.15909999999999999</v>
-      </c>
-      <c r="M76" s="3">
-        <v>0.19339999999999999</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0.2329</v>
-      </c>
-      <c r="O76" s="3">
-        <v>0.29409999999999997</v>
-      </c>
-      <c r="P76" s="3">
-        <v>0.3639</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>0.44550000000000001</v>
-      </c>
-      <c r="R76" s="3">
-        <v>0.53110000000000002</v>
-      </c>
-      <c r="S76" s="3">
-        <v>0.64890000000000003</v>
-      </c>
-      <c r="T76" s="3">
-        <v>0.76219999999999999</v>
-      </c>
-      <c r="U76" s="3">
-        <v>0.9194</v>
-      </c>
-      <c r="V76" s="3">
-        <v>0.93520000000000003</v>
-      </c>
-      <c r="W76" s="3">
-        <v>0.9446</v>
-      </c>
-      <c r="X76" s="3">
-        <v>0.96340000000000003</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>0.96379999999999999</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>0.99660000000000004</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>1.0066999999999999</v>
-      </c>
-      <c r="AB76" s="3">
-        <v>1.0392999999999999</v>
-      </c>
-      <c r="AC76" s="3">
-        <v>1.0888</v>
-      </c>
-      <c r="AD76" s="3">
-        <v>1.1079000000000001</v>
-      </c>
-      <c r="AE76" s="3">
+    <row r="76" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="2">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="C76" s="2">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="D76" s="2">
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="E76" s="2">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="F76" s="2">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="G76" s="2">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0.1293</v>
+      </c>
+      <c r="K76" s="2">
+        <v>0.1618</v>
+      </c>
+      <c r="L76" s="2">
+        <v>0.1973</v>
+      </c>
+      <c r="M76" s="2">
+        <v>0.2407</v>
+      </c>
+      <c r="N76" s="2">
+        <v>0.29430000000000001</v>
+      </c>
+      <c r="O76" s="2">
+        <v>0.37380000000000002</v>
+      </c>
+      <c r="P76" s="2">
+        <v>0.45219999999999999</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>0.55589999999999995</v>
+      </c>
+      <c r="R76" s="2">
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="S76" s="2">
+        <v>0.79369999999999996</v>
+      </c>
+      <c r="T76" s="2">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="U76" s="2">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="V76" s="2">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="W76" s="2">
+        <v>0.9496</v>
+      </c>
+      <c r="X76" s="2">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="Y76" s="2">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="Z76" s="2">
+        <v>1.0235000000000001</v>
+      </c>
+      <c r="AA76" s="2">
+        <v>1.046</v>
+      </c>
+      <c r="AB76" s="2">
+        <v>1.0833999999999999</v>
+      </c>
+      <c r="AC76" s="2">
+        <v>1.0922000000000001</v>
+      </c>
+      <c r="AD76" s="2">
+        <v>1.1053999999999999</v>
+      </c>
+      <c r="AE76" s="2">
         <v>1.1149</v>
       </c>
-      <c r="AF76" s="3">
-        <v>1.1251</v>
-      </c>
-      <c r="AG76" s="3">
-        <v>1.1505000000000001</v>
-      </c>
-      <c r="AH76" s="3">
-        <v>1.1737</v>
-      </c>
-      <c r="AI76" s="3">
-        <v>1.2041999999999999</v>
-      </c>
-      <c r="AJ76" s="3">
-        <v>1.2351000000000001</v>
-      </c>
-      <c r="AK76" s="3">
-        <v>1.2454000000000001</v>
-      </c>
-      <c r="AL76" s="3">
-        <v>1.2533000000000001</v>
-      </c>
-      <c r="AM76" s="3">
-        <v>1.2757000000000001</v>
-      </c>
-      <c r="AN76" s="3">
-        <v>1.2924</v>
-      </c>
-      <c r="AO76" s="3">
-        <v>1.2814000000000001</v>
-      </c>
-      <c r="AP76" s="3">
-        <v>1.2833000000000001</v>
+      <c r="AF76" s="2">
+        <v>1.1383000000000001</v>
+      </c>
+      <c r="AG76" s="2">
+        <v>1.1597999999999999</v>
+      </c>
+      <c r="AH76" s="2">
+        <v>1.1916</v>
+      </c>
+      <c r="AI76" s="2">
+        <v>1.2145999999999999</v>
+      </c>
+      <c r="AJ76" s="2">
+        <v>1.2492000000000001</v>
+      </c>
+      <c r="AK76" s="2">
+        <v>1.2635000000000001</v>
+      </c>
+      <c r="AL76" s="2">
+        <v>1.2598</v>
+      </c>
+      <c r="AM76" s="2">
+        <v>1.2863</v>
+      </c>
+      <c r="AN76" s="2">
+        <v>1.2912999999999999</v>
+      </c>
+      <c r="AO76" s="2">
+        <v>1.2927999999999999</v>
+      </c>
+      <c r="AP76" s="2">
+        <v>1.306</v>
       </c>
     </row>
-    <row r="77" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+    <row r="77" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="1">
         <v>0</v>
       </c>
-      <c r="B77" s="2">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="C77" s="2">
-        <v>7.1499999999999994E-2</v>
-      </c>
-      <c r="D77" s="2">
-        <v>7.3200000000000001E-2</v>
-      </c>
-      <c r="E77" s="2">
-        <v>8.0699999999999994E-2</v>
-      </c>
-      <c r="F77" s="2">
-        <v>8.3599999999999994E-2</v>
-      </c>
-      <c r="G77" s="2">
-        <v>8.9899999999999994E-2</v>
-      </c>
-      <c r="H77" s="2">
-        <v>0.10249999999999999</v>
-      </c>
-      <c r="I77" s="2">
-        <v>0.11169999999999999</v>
-      </c>
-      <c r="J77" s="2">
-        <v>0.1293</v>
-      </c>
-      <c r="K77" s="2">
-        <v>0.1618</v>
-      </c>
-      <c r="L77" s="2">
-        <v>0.1973</v>
-      </c>
-      <c r="M77" s="2">
-        <v>0.2407</v>
-      </c>
-      <c r="N77" s="2">
-        <v>0.29430000000000001</v>
-      </c>
-      <c r="O77" s="2">
-        <v>0.37380000000000002</v>
-      </c>
-      <c r="P77" s="2">
-        <v>0.45219999999999999</v>
-      </c>
-      <c r="Q77" s="2">
-        <v>0.55589999999999995</v>
-      </c>
-      <c r="R77" s="2">
-        <v>0.66180000000000005</v>
-      </c>
-      <c r="S77" s="2">
-        <v>0.79369999999999996</v>
-      </c>
-      <c r="T77" s="2">
-        <v>0.90690000000000004</v>
-      </c>
-      <c r="U77" s="2">
-        <v>0.93320000000000003</v>
-      </c>
-      <c r="V77" s="2">
-        <v>0.93049999999999999</v>
-      </c>
-      <c r="W77" s="2">
-        <v>0.9496</v>
-      </c>
-      <c r="X77" s="2">
-        <v>0.99019999999999997</v>
-      </c>
-      <c r="Y77" s="2">
-        <v>0.99650000000000005</v>
-      </c>
-      <c r="Z77" s="2">
-        <v>1.0235000000000001</v>
-      </c>
-      <c r="AA77" s="2">
-        <v>1.046</v>
-      </c>
-      <c r="AB77" s="2">
-        <v>1.0833999999999999</v>
-      </c>
-      <c r="AC77" s="2">
-        <v>1.0922000000000001</v>
-      </c>
-      <c r="AD77" s="2">
-        <v>1.1053999999999999</v>
-      </c>
-      <c r="AE77" s="2">
-        <v>1.1149</v>
-      </c>
-      <c r="AF77" s="2">
-        <v>1.1383000000000001</v>
-      </c>
-      <c r="AG77" s="2">
-        <v>1.1597999999999999</v>
-      </c>
-      <c r="AH77" s="2">
-        <v>1.1916</v>
-      </c>
-      <c r="AI77" s="2">
-        <v>1.2145999999999999</v>
-      </c>
-      <c r="AJ77" s="2">
-        <v>1.2492000000000001</v>
-      </c>
-      <c r="AK77" s="2">
-        <v>1.2635000000000001</v>
-      </c>
-      <c r="AL77" s="2">
-        <v>1.2598</v>
-      </c>
-      <c r="AM77" s="2">
-        <v>1.2863</v>
-      </c>
-      <c r="AN77" s="2">
-        <v>1.2912999999999999</v>
-      </c>
-      <c r="AO77" s="2">
-        <v>1.2927999999999999</v>
-      </c>
-      <c r="AP77" s="2">
-        <v>1.306</v>
-      </c>
-    </row>
-    <row r="78" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="1">
-        <v>0</v>
-      </c>
-      <c r="C78" s="1">
+      <c r="C77" s="1">
         <v>1801</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D77" s="1">
         <v>3602</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E77" s="1">
         <v>5402</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F77" s="1">
         <v>7202</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G77" s="1">
         <v>9002</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H77" s="1">
         <v>10802</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I77" s="1">
         <v>12601</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J77" s="1">
         <v>14399</v>
       </c>
-      <c r="K78" s="1">
+      <c r="K77" s="1">
         <v>16201</v>
       </c>
-      <c r="L78" s="1">
+      <c r="L77" s="1">
         <v>18002</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M77" s="1">
         <v>19803</v>
       </c>
-      <c r="N78" s="1">
+      <c r="N77" s="1">
         <v>21604</v>
       </c>
-      <c r="O78" s="1">
+      <c r="O77" s="1">
         <v>23406</v>
       </c>
-      <c r="P78" s="1">
+      <c r="P77" s="1">
         <v>25200</v>
       </c>
-      <c r="Q78" s="1">
+      <c r="Q77" s="1">
         <v>27002</v>
       </c>
-      <c r="R78" s="1">
+      <c r="R77" s="1">
         <v>28797</v>
       </c>
-      <c r="S78" s="1">
+      <c r="S77" s="1">
         <v>30602</v>
       </c>
-      <c r="T78" s="1">
+      <c r="T77" s="1">
         <v>32400</v>
       </c>
-      <c r="U78" s="1">
+      <c r="U77" s="1">
         <v>34201</v>
       </c>
-      <c r="V78" s="1">
+      <c r="V77" s="1">
         <v>36001</v>
       </c>
-      <c r="W78" s="1">
+      <c r="W77" s="1">
         <v>37801</v>
       </c>
-      <c r="X78" s="1">
+      <c r="X77" s="1">
         <v>39605</v>
       </c>
-      <c r="Y78" s="1">
+      <c r="Y77" s="1">
         <v>41400</v>
       </c>
-      <c r="Z78" s="1">
+      <c r="Z77" s="1">
         <v>43201</v>
       </c>
-      <c r="AA78" s="1">
+      <c r="AA77" s="1">
         <v>45002</v>
       </c>
-      <c r="AB78" s="1">
+      <c r="AB77" s="1">
         <v>46803</v>
       </c>
-      <c r="AC78" s="1">
+      <c r="AC77" s="1">
         <v>48601</v>
       </c>
-      <c r="AD78" s="1">
+      <c r="AD77" s="1">
         <v>50397</v>
       </c>
-      <c r="AE78" s="1">
+      <c r="AE77" s="1">
         <v>52200</v>
       </c>
-      <c r="AF78" s="1">
+      <c r="AF77" s="1">
         <v>54000</v>
       </c>
-      <c r="AG78" s="1">
+      <c r="AG77" s="1">
         <v>55801</v>
       </c>
-      <c r="AH78" s="1">
+      <c r="AH77" s="1">
         <v>57601</v>
       </c>
-      <c r="AI78" s="1">
+      <c r="AI77" s="1">
         <v>59402</v>
       </c>
-      <c r="AJ78" s="1">
+      <c r="AJ77" s="1">
         <v>61200</v>
       </c>
-      <c r="AK78" s="1">
+      <c r="AK77" s="1">
         <v>63003</v>
       </c>
-      <c r="AL78" s="1">
+      <c r="AL77" s="1">
         <v>64799</v>
       </c>
-      <c r="AM78" s="1">
+      <c r="AM77" s="1">
         <v>66600</v>
       </c>
-      <c r="AN78" s="1">
+      <c r="AN77" s="1">
         <v>68401</v>
       </c>
-      <c r="AO78" s="1">
+      <c r="AO77" s="1">
         <v>70202</v>
       </c>
-      <c r="AP78" s="1">
+      <c r="AP77" s="1">
         <v>72004</v>
       </c>
     </row>
